--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.140455666666667</v>
+        <v>6.037570333333334</v>
       </c>
       <c r="H2">
-        <v>9.421367</v>
+        <v>18.112711</v>
       </c>
       <c r="I2">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887736</v>
       </c>
       <c r="J2">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887734</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>2.087173006530556</v>
+        <v>5.863078513129667</v>
       </c>
       <c r="R2">
-        <v>18.784557058775</v>
+        <v>52.767706618167</v>
       </c>
       <c r="S2">
-        <v>2.778340393425487E-05</v>
+        <v>7.501180519241593E-05</v>
       </c>
       <c r="T2">
-        <v>2.778340393425486E-05</v>
+        <v>7.501180519241592E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.140455666666667</v>
+        <v>6.037570333333334</v>
       </c>
       <c r="H3">
-        <v>9.421367</v>
+        <v>18.112711</v>
       </c>
       <c r="I3">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887736</v>
       </c>
       <c r="J3">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887734</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>269.5328234182693</v>
+        <v>518.1806563303547</v>
       </c>
       <c r="R3">
-        <v>2425.795410764424</v>
+        <v>4663.625906973192</v>
       </c>
       <c r="S3">
-        <v>0.003587886238054572</v>
+        <v>0.006629566082065386</v>
       </c>
       <c r="T3">
-        <v>0.003587886238054572</v>
+        <v>0.006629566082065384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.140455666666667</v>
+        <v>6.037570333333334</v>
       </c>
       <c r="H4">
-        <v>9.421367</v>
+        <v>18.112711</v>
       </c>
       <c r="I4">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887736</v>
       </c>
       <c r="J4">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887734</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>106.7664753716291</v>
+        <v>218.8568872371519</v>
       </c>
       <c r="R4">
-        <v>960.898278344662</v>
+        <v>1969.711985134367</v>
       </c>
       <c r="S4">
-        <v>0.001421221960328769</v>
+        <v>0.002800039288863043</v>
       </c>
       <c r="T4">
-        <v>0.001421221960328768</v>
+        <v>0.002800039288863042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.140455666666667</v>
+        <v>6.037570333333334</v>
       </c>
       <c r="H5">
-        <v>9.421367</v>
+        <v>18.112711</v>
       </c>
       <c r="I5">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887736</v>
       </c>
       <c r="J5">
-        <v>0.005037281036089241</v>
+        <v>0.009516155302887734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.02925543817211112</v>
+        <v>0.9018439558306666</v>
       </c>
       <c r="R5">
-        <v>0.263298943549</v>
+        <v>8.116595602476</v>
       </c>
       <c r="S5">
-        <v>3.894337716452652E-07</v>
+        <v>1.153812676689148E-05</v>
       </c>
       <c r="T5">
-        <v>3.894337716452652E-07</v>
+        <v>1.153812676689148E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1804.748352</v>
       </c>
       <c r="I6">
-        <v>0.9649368980576715</v>
+        <v>0.948188573221463</v>
       </c>
       <c r="J6">
-        <v>0.9649368980576714</v>
+        <v>0.9481885732214629</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>399.8169314362667</v>
+        <v>584.196439959616</v>
       </c>
       <c r="R6">
-        <v>3598.3523829264</v>
+        <v>5257.767959636543</v>
       </c>
       <c r="S6">
-        <v>0.005322163170514087</v>
+        <v>0.007474167274106988</v>
       </c>
       <c r="T6">
-        <v>0.005322163170514085</v>
+        <v>0.007474167274106987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1804.748352</v>
       </c>
       <c r="I7">
-        <v>0.9649368980576715</v>
+        <v>0.948188573221463</v>
       </c>
       <c r="J7">
-        <v>0.9649368980576714</v>
+        <v>0.9481885732214629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>51631.45845757081</v>
@@ -883,10 +883,10 @@
         <v>464683.1261181373</v>
       </c>
       <c r="S7">
-        <v>0.6872921705833632</v>
+        <v>0.6605691694127179</v>
       </c>
       <c r="T7">
-        <v>0.687292170583363</v>
+        <v>0.6605691694127177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1804.748352</v>
       </c>
       <c r="I8">
-        <v>0.9649368980576715</v>
+        <v>0.948188573221463</v>
       </c>
       <c r="J8">
-        <v>0.9649368980576714</v>
+        <v>0.9481885732214629</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>20452.08731129954</v>
+        <v>21806.87399943055</v>
       </c>
       <c r="R8">
-        <v>184068.7858016959</v>
+        <v>196261.8659948749</v>
       </c>
       <c r="S8">
-        <v>0.2722479647305486</v>
+        <v>0.2789955789672141</v>
       </c>
       <c r="T8">
-        <v>0.2722479647305485</v>
+        <v>0.2789955789672141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1804.748352</v>
       </c>
       <c r="I9">
-        <v>0.9649368980576715</v>
+        <v>0.948188573221463</v>
       </c>
       <c r="J9">
-        <v>0.9649368980576714</v>
+        <v>0.9481885732214629</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>5.604144688149334</v>
+        <v>89.85962361164798</v>
       </c>
       <c r="R9">
-        <v>50.437302193344</v>
+        <v>808.7366125048319</v>
       </c>
       <c r="S9">
-        <v>7.459957324557431E-05</v>
+        <v>0.001149657567424031</v>
       </c>
       <c r="T9">
-        <v>7.45995732455743E-05</v>
+        <v>0.001149657567424031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.78400266666667</v>
+        <v>24.52313633333334</v>
       </c>
       <c r="H10">
-        <v>53.352008</v>
+        <v>73.56940900000001</v>
       </c>
       <c r="I10">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="J10">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>11.81939637228889</v>
+        <v>23.81439317016367</v>
       </c>
       <c r="R10">
-        <v>106.3745673506</v>
+        <v>214.329538531473</v>
       </c>
       <c r="S10">
-        <v>0.0001573338974023194</v>
+        <v>0.0003046796349828124</v>
       </c>
       <c r="T10">
-        <v>0.0001573338974023193</v>
+        <v>0.0003046796349828123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.78400266666667</v>
+        <v>24.52313633333334</v>
       </c>
       <c r="H11">
-        <v>53.352008</v>
+        <v>73.56940900000001</v>
       </c>
       <c r="I11">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="J11">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>1526.330239685398</v>
+        <v>2104.723287499939</v>
       </c>
       <c r="R11">
-        <v>13736.97215716858</v>
+        <v>18942.50958749945</v>
       </c>
       <c r="S11">
-        <v>0.02031774532037416</v>
+        <v>0.02692767850069467</v>
       </c>
       <c r="T11">
-        <v>0.02031774532037415</v>
+        <v>0.02692767850069467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.78400266666667</v>
+        <v>24.52313633333334</v>
       </c>
       <c r="H12">
-        <v>53.352008</v>
+        <v>73.56940900000001</v>
       </c>
       <c r="I12">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="J12">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>604.6050268670099</v>
+        <v>888.9432316132528</v>
       </c>
       <c r="R12">
-        <v>5441.445241803089</v>
+        <v>8000.489084519275</v>
       </c>
       <c r="S12">
-        <v>0.00804819994776089</v>
+        <v>0.01137307582826416</v>
       </c>
       <c r="T12">
-        <v>0.008048199947760886</v>
+        <v>0.01137307582826416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.78400266666667</v>
+        <v>24.52313633333334</v>
       </c>
       <c r="H13">
-        <v>53.352008</v>
+        <v>73.56940900000001</v>
       </c>
       <c r="I13">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="J13">
-        <v>0.02852548447966007</v>
+        <v>0.03865229901728497</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.1656698408417778</v>
+        <v>3.663069920382667</v>
       </c>
       <c r="R13">
-        <v>1.491028567576</v>
+        <v>32.967629283444</v>
       </c>
       <c r="S13">
-        <v>2.205314122705163E-06</v>
+        <v>4.686505334332818E-05</v>
       </c>
       <c r="T13">
-        <v>2.205314122705162E-06</v>
+        <v>4.686505334332817E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9353736666666667</v>
+        <v>2.311301333333333</v>
       </c>
       <c r="H14">
-        <v>2.806121</v>
+        <v>6.933904</v>
       </c>
       <c r="I14">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="J14">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>0.6216571336472222</v>
+        <v>2.244502413498667</v>
       </c>
       <c r="R14">
-        <v>5.594914202825</v>
+        <v>20.200521721488</v>
       </c>
       <c r="S14">
-        <v>8.275189070906082E-06</v>
+        <v>2.871600259458198E-05</v>
       </c>
       <c r="T14">
-        <v>8.27518907090608E-06</v>
+        <v>2.871600259458198E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9353736666666667</v>
+        <v>2.311301333333333</v>
       </c>
       <c r="H15">
-        <v>2.806121</v>
+        <v>6.933904</v>
       </c>
       <c r="I15">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="J15">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>80.27940276430134</v>
+        <v>198.3698037058987</v>
       </c>
       <c r="R15">
-        <v>722.514624878712</v>
+        <v>1785.328233353088</v>
       </c>
       <c r="S15">
-        <v>0.00106863928750636</v>
+        <v>0.002537929014309205</v>
       </c>
       <c r="T15">
-        <v>0.00106863928750636</v>
+        <v>0.002537929014309205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9353736666666667</v>
+        <v>2.311301333333333</v>
       </c>
       <c r="H16">
-        <v>2.806121</v>
+        <v>6.933904</v>
       </c>
       <c r="I16">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="J16">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>31.80001889707844</v>
+        <v>83.78274493758755</v>
       </c>
       <c r="R16">
-        <v>286.200170073706</v>
+        <v>754.044704438288</v>
       </c>
       <c r="S16">
-        <v>0.0004233059585238241</v>
+        <v>0.001071910418335754</v>
       </c>
       <c r="T16">
-        <v>0.000423305958523824</v>
+        <v>0.001071910418335753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9353736666666667</v>
+        <v>2.311301333333333</v>
       </c>
       <c r="H17">
-        <v>2.806121</v>
+        <v>6.933904</v>
       </c>
       <c r="I17">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="J17">
-        <v>0.001500336426579262</v>
+        <v>0.003642972458364431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.008713629287444445</v>
+        <v>0.3452437027626666</v>
       </c>
       <c r="R17">
-        <v>0.07842266358700001</v>
+        <v>3.107193324864</v>
       </c>
       <c r="S17">
-        <v>1.159914781711596E-07</v>
+        <v>4.417023124890354E-06</v>
       </c>
       <c r="T17">
-        <v>1.159914781711596E-07</v>
+        <v>4.417023124890354E-06</v>
       </c>
     </row>
   </sheetData>
